--- a/medicine/Psychotrope/Beyond_(film,_2010)/Beyond_(film,_2010).xlsx
+++ b/medicine/Psychotrope/Beyond_(film,_2010)/Beyond_(film,_2010).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beyond (Svinalängorna) est un film suédois réalisé par Pernilla August, sorti en 2010.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leena vit avec son mari et ses deux filles à Stockholm. À la mort de sa mère, elle se remémore son enfance traumatique aurprès de parents alcooliques.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre français : Beyond
 Titre original suédois : Svinalängorna
@@ -562,7 +578,7 @@
 Suède : 10 décembre 2010
 Finlande : 11 mars 2011
 Danemark : 14 avril 2011
-France : 24 octobre 2022 (Vidéo à la demande[1])</t>
+France : 24 octobre 2022 (Vidéo à la demande)</t>
         </is>
       </c>
     </row>
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Noomi Rapace : Leena
 Ola Rapace : Johan
@@ -638,9 +656,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a été nommé pour neuf prix Guldbagge et en a remporté trois : meilleure réalisation, meilleur second rôle féminin pour Outi Mäenpää et meilleur montage[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été nommé pour neuf prix Guldbagge et en a remporté trois : meilleure réalisation, meilleur second rôle féminin pour Outi Mäenpää et meilleur montage.
 </t>
         </is>
       </c>
